--- a/Datasets/GDP/Correlation - GDP vs Temp.xlsx
+++ b/Datasets/GDP/Correlation - GDP vs Temp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\CS661-Project\Datasets\GDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ila\Desktop\Sem 8\CS661\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107EF569-84A0-479D-A495-E66BCB1974EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C10434E-E022-4D9C-9216-548664B355E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{C39F090C-15AD-4A60-8A35-CF98B091CACE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{C39F090C-15AD-4A60-8A35-CF98B091CACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculation" sheetId="1" r:id="rId1"/>
@@ -1113,13 +1113,13 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="30" max="30" width="8.77734375" style="4"/>
-    <col min="35" max="35" width="8.77734375" style="2"/>
+    <col min="30" max="30" width="8.81640625" style="4"/>
+    <col min="35" max="35" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>23.629000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>18.012</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>168.19499999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>74.953000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>1.534</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>483.76499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>15.06</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>1677.45</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>520.34299999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>202</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>54.725000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>11.250999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>41.057000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>390.608</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>5.1420000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>204</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>70.632000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>205</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>619.16</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>2.0619999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>19.917000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>203</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>40.895000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>204</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>23.006</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>204</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>19.001999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>1810.61</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>204</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>84.308000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>21.887</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>204</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>3.3959999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>2.371</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>27.984999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>48.29</v>
       </c>
     </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>202</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>2189.79</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>205</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>2.7970000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>204</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>12.952999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>352.66399999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>207</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>18463.13</v>
       </c>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>319.29000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>1.363</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>207</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>17.913</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>24.391999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>203</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>64.373999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>203</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>68.525000000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>203</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>28.291</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>302.06099999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>207</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>414.55</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>207</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>3.9319999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>205</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>97.370999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>207</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>109.97499999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>438.34800000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>203</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>29.315999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>203</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>12.074</v>
       </c>
     </row>
-    <row r="52" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>204</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>2.484</v>
       </c>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>39.542000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>204</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>314.53800000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>203</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>3140.03</v>
       </c>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>203</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>19.632000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>204</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>1.494</v>
       </c>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>203</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>19.687999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>207</v>
       </c>
@@ -10883,7 +10883,7 @@
         <v>4557.3500000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -11043,7 +11043,7 @@
         <v>82.018000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>204</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>224.89400000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>207</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>207</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>89.213999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>207</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>18.222999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>1.7210000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>9.8369999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>18.824999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>27.922999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>202</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>389.97699999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>202</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>198.99199999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -12803,7 +12803,7 @@
         <v>27.172000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>202</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>3250.08</v>
       </c>
     </row>
-    <row r="75" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>1247.3499999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>207</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>640.63199999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>550.51800000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>501.40899999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>202</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>2272.27</v>
       </c>
     </row>
-    <row r="80" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>15.63</v>
       </c>
     </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>5383.68</v>
       </c>
     </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>202</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>203.666</v>
       </c>
     </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>203</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>116.64100000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>1907.66</v>
       </c>
     </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>204</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>138.78</v>
       </c>
     </row>
-    <row r="88" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>204</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>8.9280000000000008</v>
       </c>
     </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>203</v>
       </c>
@@ -15363,7 +15363,7 @@
         <v>14.247999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>203</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>40.83</v>
       </c>
     </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>204</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>65.292000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>204</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>2.5920000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>202</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>3.6640000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>29.202000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>203</v>
       </c>
@@ -16323,7 +16323,7 @@
         <v>67.659000000000006</v>
       </c>
     </row>
-    <row r="96" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -16483,7 +16483,7 @@
         <v>89.683000000000007</v>
       </c>
     </row>
-    <row r="97" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>204</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>24.277000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>207</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>15.401999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>203</v>
       </c>
@@ -16963,7 +16963,7 @@
         <v>12.007999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>202</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>415.375</v>
       </c>
     </row>
-    <row r="101" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>203</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>5.2960000000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -17443,7 +17443,7 @@
         <v>21.260999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -17603,7 +17603,7 @@
         <v>18.209</v>
       </c>
     </row>
-    <row r="104" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>9.3360000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -17923,7 +17923,7 @@
         <v>11.954000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>202</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>1371.64</v>
       </c>
     </row>
-    <row r="107" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>203</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>13.315</v>
       </c>
     </row>
-    <row r="108" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>15.83</v>
       </c>
     </row>
-    <row r="109" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>207</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>132.64500000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -18723,7 +18723,7 @@
         <v>16.759</v>
       </c>
     </row>
-    <row r="111" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>204</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>13.122</v>
       </c>
     </row>
-    <row r="112" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>204</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>36.295999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>1070.75</v>
       </c>
     </row>
-    <row r="114" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>203</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>267.63600000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>202</v>
       </c>
@@ -19523,7 +19523,7 @@
         <v>13.948</v>
       </c>
     </row>
-    <row r="116" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>202</v>
       </c>
@@ -19683,7 +19683,7 @@
         <v>17.260999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>206</v>
       </c>
@@ -19843,7 +19843,7 @@
         <v>555.346</v>
       </c>
     </row>
-    <row r="118" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>207</v>
       </c>
@@ -20003,7 +20003,7 @@
         <v>458.39800000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>205</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>85.718999999999994</v>
       </c>
     </row>
-    <row r="120" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>205</v>
       </c>
@@ -20323,7 +20323,7 @@
         <v>397.27100000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>202</v>
       </c>
@@ -20483,7 +20483,7 @@
         <v>64.366</v>
       </c>
     </row>
-    <row r="122" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>203</v>
       </c>
@@ -20643,7 +20643,7 @@
         <v>28.31</v>
       </c>
     </row>
-    <row r="123" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>203</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>39.197000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>203</v>
       </c>
@@ -20963,7 +20963,7 @@
         <v>231.691</v>
       </c>
     </row>
-    <row r="125" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>202</v>
       </c>
@@ -21123,7 +21123,7 @@
         <v>406.10700000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>203</v>
       </c>
@@ -21283,7 +21283,7 @@
         <v>720.35</v>
       </c>
     </row>
-    <row r="127" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>203</v>
       </c>
@@ -21443,7 +21443,7 @@
         <v>271.19099999999997</v>
       </c>
     </row>
-    <row r="128" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>204</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>180.88300000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>207</v>
       </c>
@@ -21763,7 +21763,7 @@
         <v>314.87599999999998</v>
       </c>
     </row>
-    <row r="130" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>204</v>
       </c>
@@ -21923,7 +21923,7 @@
         <v>1703.53</v>
       </c>
     </row>
-    <row r="131" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>202</v>
       </c>
@@ -22083,7 +22083,7 @@
         <v>11.035</v>
       </c>
     </row>
-    <row r="132" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>204</v>
       </c>
@@ -22243,7 +22243,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="133" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>203</v>
       </c>
@@ -22403,7 +22403,7 @@
         <v>0.57299999999999995</v>
       </c>
     </row>
-    <row r="134" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>204</v>
       </c>
@@ -22563,7 +22563,7 @@
         <v>876.14800000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>204</v>
       </c>
@@ -22723,7 +22723,7 @@
         <v>30.039000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>202</v>
       </c>
@@ -22883,7 +22883,7 @@
         <v>65.697000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>203</v>
       </c>
@@ -23043,7 +23043,7 @@
         <v>1.7509999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>203</v>
       </c>
@@ -23203,7 +23203,7 @@
         <v>4.5869999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>204</v>
       </c>
@@ -23363,7 +23363,7 @@
         <v>396.995</v>
       </c>
     </row>
-    <row r="140" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>204</v>
       </c>
@@ -23523,7 +23523,7 @@
         <v>127.497</v>
       </c>
     </row>
-    <row r="141" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>203</v>
       </c>
@@ -23683,7 +23683,7 @@
         <v>65.474999999999994</v>
       </c>
     </row>
-    <row r="142" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>202</v>
       </c>
@@ -23843,7 +23843,7 @@
         <v>1.798</v>
       </c>
     </row>
-    <row r="143" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>203</v>
       </c>
@@ -24003,7 +24003,7 @@
         <v>435.21199999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>203</v>
       </c>
@@ -24163,7 +24163,7 @@
         <v>1570.91</v>
       </c>
     </row>
-    <row r="145" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>202</v>
       </c>
@@ -24323,7 +24323,7 @@
         <v>83.314999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>202</v>
       </c>
@@ -24483,7 +24483,7 @@
         <v>1.0920000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>202</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>1.998</v>
       </c>
     </row>
-    <row r="148" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>204</v>
       </c>
@@ -24803,7 +24803,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>202</v>
       </c>
@@ -24963,7 +24963,7 @@
         <v>37.768999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>204</v>
       </c>
@@ -25123,7 +25123,7 @@
         <v>2.9369999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>207</v>
       </c>
@@ -25283,7 +25283,7 @@
         <v>660.91800000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>204</v>
       </c>
@@ -25443,7 +25443,7 @@
         <v>862.81899999999996</v>
       </c>
     </row>
-    <row r="153" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>202</v>
       </c>
@@ -25605,7 +25605,7 @@
         <v>199.40700000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>202</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>850.52800000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>204</v>
       </c>
@@ -25925,7 +25925,7 @@
         <v>8.7560000000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>203</v>
       </c>
@@ -26085,7 +26085,7 @@
         <v>74.536000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>202</v>
       </c>
@@ -26245,7 +26245,7 @@
         <v>585.58600000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>203</v>
       </c>
@@ -26405,7 +26405,7 @@
         <v>9.3569999999999993</v>
       </c>
     </row>
-    <row r="159" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>203</v>
       </c>
@@ -26565,7 +26565,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="160" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>205</v>
       </c>
@@ -26725,7 +26725,7 @@
         <v>23.082000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>202</v>
       </c>
@@ -26885,7 +26885,7 @@
         <v>45.454000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>205</v>
       </c>
@@ -27045,7 +27045,7 @@
         <v>844.53399999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>202</v>
       </c>
@@ -27205,7 +27205,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>202</v>
       </c>
@@ -27365,7 +27365,7 @@
         <v>203.92500000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>202</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>427.93</v>
       </c>
     </row>
-    <row r="166" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>204</v>
       </c>
@@ -27685,7 +27685,7 @@
         <v>3442.21</v>
       </c>
     </row>
-    <row r="167" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>204</v>
       </c>
@@ -27845,7 +27845,7 @@
         <v>24796.080000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>167</v>
       </c>
@@ -28002,7 +28002,7 @@
         <v>63.741</v>
       </c>
     </row>
-    <row r="169" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>168</v>
       </c>
@@ -28159,7 +28159,7 @@
         <v>72.762</v>
       </c>
     </row>
-    <row r="170" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B170" t="s">
         <v>169</v>
       </c>
@@ -28316,7 +28316,7 @@
         <v>43.545999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
         <v>170</v>
       </c>
@@ -28473,7 +28473,7 @@
         <v>415.49299999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
         <v>171</v>
       </c>
@@ -28630,7 +28630,7 @@
         <v>23.966999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:54" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>172</v>
       </c>
@@ -28800,13 +28800,13 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="4" width="8.77734375"/>
-    <col min="26" max="50" width="8.77734375"/>
+    <col min="3" max="4" width="8.81640625"/>
+    <col min="26" max="50" width="8.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
@@ -28958,7 +28958,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -29105,7 +29105,7 @@
         <v>27.468624999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -29252,7 +29252,7 @@
         <v>28.600874999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -29399,7 +29399,7 @@
         <v>39.470500000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -29546,7 +29546,7 @@
         <v>34.219875000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -29693,7 +29693,7 @@
         <v>35.270625000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -29840,7 +29840,7 @@
         <v>22.383125</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -29987,7 +29987,7 @@
         <v>27.181750000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -30134,7 +30134,7 @@
         <v>32.090874999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -30281,7 +30281,7 @@
         <v>27.570125000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>202</v>
       </c>
@@ -30428,7 +30428,7 @@
         <v>30.328874999999901</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -30575,7 +30575,7 @@
         <v>36.817666666666589</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -30722,7 +30722,7 @@
         <v>46.400374999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -30869,7 +30869,7 @@
         <v>35.063499999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -31016,7 +31016,7 @@
         <v>28.537125</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>204</v>
       </c>
@@ -31163,7 +31163,7 @@
         <v>28.677499999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>205</v>
       </c>
@@ -31310,7 +31310,7 @@
         <v>28.320125000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -31457,7 +31457,7 @@
         <v>37.639333333333298</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -31604,7 +31604,7 @@
         <v>38.036624999999987</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -31751,7 +31751,7 @@
         <v>25.198374999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>203</v>
       </c>
@@ -31898,7 +31898,7 @@
         <v>29.113875</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>204</v>
       </c>
@@ -32045,7 +32045,7 @@
         <v>29.438499999999991</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>204</v>
       </c>
@@ -32192,7 +32192,7 @@
         <v>25.787749999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -32339,7 +32339,7 @@
         <v>37.059124999999987</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>204</v>
       </c>
@@ -32486,7 +32486,7 @@
         <v>28.699874999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -32633,7 +32633,7 @@
         <v>39.362499999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>204</v>
       </c>
@@ -32780,7 +32780,7 @@
         <v>20.862749999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -32927,7 +32927,7 @@
         <v>36.542499999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -33074,7 +33074,7 @@
         <v>38.122624999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -33221,7 +33221,7 @@
         <v>36.128625</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>202</v>
       </c>
@@ -33368,7 +33368,7 @@
         <v>10.430333333333341</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>205</v>
       </c>
@@ -33515,7 +33515,7 @@
         <v>36.18587500000001</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>204</v>
       </c>
@@ -33662,7 +33662,7 @@
         <v>38.380000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -33809,7 +33809,7 @@
         <v>16.56037499999999</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>207</v>
       </c>
@@ -33956,7 +33956,7 @@
         <v>22.556000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -34103,7 +34103,7 @@
         <v>35.646500000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -34250,7 +34250,7 @@
         <v>33.628874999999987</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>207</v>
       </c>
@@ -34397,7 +34397,7 @@
         <v>37.797375000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -34544,7 +34544,7 @@
         <v>35.773374999999987</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>203</v>
       </c>
@@ -34691,7 +34691,7 @@
         <v>26.457555555555501</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>203</v>
       </c>
@@ -34838,7 +34838,7 @@
         <v>30.9619999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>203</v>
       </c>
@@ -34985,7 +34985,7 @@
         <v>33.347875000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -35132,7 +35132,7 @@
         <v>28.974</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>207</v>
       </c>
@@ -35279,7 +35279,7 @@
         <v>27.011375000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>207</v>
       </c>
@@ -35426,7 +35426,7 @@
         <v>43.678749999999987</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>205</v>
       </c>
@@ -35573,7 +35573,7 @@
         <v>34.237124999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -35720,7 +35720,7 @@
         <v>36.672333333333299</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>207</v>
       </c>
@@ -35867,7 +35867,7 @@
         <v>32.896124999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -36014,7 +36014,7 @@
         <v>35.570249999999987</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>203</v>
       </c>
@@ -36161,7 +36161,7 @@
         <v>34.719777777777708</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>203</v>
       </c>
@@ -36308,7 +36308,7 @@
         <v>36.427499999999988</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>204</v>
       </c>
@@ -36455,7 +36455,7 @@
         <v>37.5045</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -36602,7 +36602,7 @@
         <v>27.607749999999989</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -36749,7 +36749,7 @@
         <v>36.908499999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>204</v>
       </c>
@@ -36896,7 +36896,7 @@
         <v>34.877375000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -37043,7 +37043,7 @@
         <v>23.832125000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>203</v>
       </c>
@@ -37190,7 +37190,7 @@
         <v>29.346749999999989</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>203</v>
       </c>
@@ -37337,7 +37337,7 @@
         <v>35.519500000000008</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>204</v>
       </c>
@@ -37484,7 +37484,7 @@
         <v>41.633374999999987</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>203</v>
       </c>
@@ -37631,7 +37631,7 @@
         <v>25.346625</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>207</v>
       </c>
@@ -37778,7 +37778,7 @@
         <v>28.231249999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -37925,7 +37925,7 @@
         <v>38.420499999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>204</v>
       </c>
@@ -38072,7 +38072,7 @@
         <v>28.608499999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>207</v>
       </c>
@@ -38219,7 +38219,7 @@
         <v>35.367875000000012</v>
       </c>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>207</v>
       </c>
@@ -38366,7 +38366,7 @@
         <v>34.918333333333287</v>
       </c>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>207</v>
       </c>
@@ -38513,7 +38513,7 @@
         <v>37.997750000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -38660,7 +38660,7 @@
         <v>40.674749999999989</v>
       </c>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -38807,7 +38807,7 @@
         <v>37.421500000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -38954,7 +38954,7 @@
         <v>38.245555555555498</v>
       </c>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -39101,7 +39101,7 @@
         <v>35.597333333333303</v>
       </c>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>202</v>
       </c>
@@ -39248,7 +39248,7 @@
         <v>35.966375000000014</v>
       </c>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>202</v>
       </c>
@@ -39395,7 +39395,7 @@
         <v>30.262499999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -39542,7 +39542,7 @@
         <v>13.171250000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>202</v>
       </c>
@@ -39689,7 +39689,7 @@
         <v>32.427249999999901</v>
       </c>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -39836,7 +39836,7 @@
         <v>36.271000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>207</v>
       </c>
@@ -39983,7 +39983,7 @@
         <v>36.415000000000013</v>
       </c>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -40130,7 +40130,7 @@
         <v>19.926749999999991</v>
       </c>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -40277,7 +40277,7 @@
         <v>33.297375000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>202</v>
       </c>
@@ -40424,7 +40424,7 @@
         <v>29.966999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -40571,7 +40571,7 @@
         <v>39.012333333333302</v>
       </c>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -40718,7 +40718,7 @@
         <v>22.716750000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>202</v>
       </c>
@@ -40865,7 +40865,7 @@
         <v>34.247124999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -41012,7 +41012,7 @@
         <v>24.374249999999989</v>
       </c>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>203</v>
       </c>
@@ -41159,7 +41159,7 @@
         <v>36.204250000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -41306,7 +41306,7 @@
         <v>34.812375000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -41453,7 +41453,7 @@
         <v>27.5275</v>
       </c>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>204</v>
       </c>
@@ -41600,7 +41600,7 @@
         <v>45.664375000000007</v>
       </c>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>204</v>
       </c>
@@ -41747,7 +41747,7 @@
         <v>20.148125</v>
       </c>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>203</v>
       </c>
@@ -41894,7 +41894,7 @@
         <v>37.754249999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>203</v>
       </c>
@@ -42041,7 +42041,7 @@
         <v>27.579374999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>204</v>
       </c>
@@ -42188,7 +42188,7 @@
         <v>32.782249999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>204</v>
       </c>
@@ -42335,7 +42335,7 @@
         <v>25.759625</v>
       </c>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>202</v>
       </c>
@@ -42482,7 +42482,7 @@
         <v>38.909999999999989</v>
       </c>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -42629,7 +42629,7 @@
         <v>34.688000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>203</v>
       </c>
@@ -42776,7 +42776,7 @@
         <v>27.888999999999989</v>
       </c>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -42923,7 +42923,7 @@
         <v>28.76625000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>204</v>
       </c>
@@ -43070,7 +43070,7 @@
         <v>24.715125</v>
       </c>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>207</v>
       </c>
@@ -43217,7 +43217,7 @@
         <v>33.008499999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>203</v>
       </c>
@@ -43364,7 +43364,7 @@
         <v>31.042375</v>
       </c>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>202</v>
       </c>
@@ -43511,7 +43511,7 @@
         <v>40.470500000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>203</v>
       </c>
@@ -43658,7 +43658,7 @@
         <v>27.6129</v>
       </c>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -43805,7 +43805,7 @@
         <v>39.895000000000003</v>
       </c>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -43952,7 +43952,7 @@
         <v>33.771374999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -44099,7 +44099,7 @@
         <v>44.124999999999993</v>
       </c>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -44246,7 +44246,7 @@
         <v>33.982374999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>202</v>
       </c>
@@ -44393,7 +44393,7 @@
         <v>34.002222222222201</v>
       </c>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>203</v>
       </c>
@@ -44540,7 +44540,7 @@
         <v>29.973500000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -44687,7 +44687,7 @@
         <v>21.29975</v>
       </c>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>207</v>
       </c>
@@ -44834,7 +44834,7 @@
         <v>34.265250000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -44981,7 +44981,7 @@
         <v>31.902999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>204</v>
       </c>
@@ -45128,7 +45128,7 @@
         <v>28.922875000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>204</v>
       </c>
@@ -45275,7 +45275,7 @@
         <v>22.65625</v>
       </c>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>204</v>
       </c>
@@ -45422,7 +45422,7 @@
         <v>27.650500000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>203</v>
       </c>
@@ -45569,7 +45569,7 @@
         <v>19.545500000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>202</v>
       </c>
@@ -45716,7 +45716,7 @@
         <v>36.486555555555498</v>
       </c>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>202</v>
       </c>
@@ -45863,7 +45863,7 @@
         <v>37.463374999999992</v>
       </c>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>206</v>
       </c>
@@ -46010,7 +46010,7 @@
         <v>38.341874999999987</v>
       </c>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>207</v>
       </c>
@@ -46157,7 +46157,7 @@
         <v>17.696375</v>
       </c>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>205</v>
       </c>
@@ -46304,7 +46304,7 @@
         <v>37.137375000000013</v>
       </c>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>205</v>
       </c>
@@ -46451,7 +46451,7 @@
         <v>30.521875000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>202</v>
       </c>
@@ -46598,7 +46598,7 @@
         <v>37.695500000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>203</v>
       </c>
@@ -46745,7 +46745,7 @@
         <v>32.381124999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>203</v>
       </c>
@@ -46892,7 +46892,7 @@
         <v>31.358750000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>203</v>
       </c>
@@ -47039,7 +47039,7 @@
         <v>30.27225</v>
       </c>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>202</v>
       </c>
@@ -47186,7 +47186,7 @@
         <v>39.566749999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>203</v>
       </c>
@@ -47333,7 +47333,7 @@
         <v>28.466875000000009</v>
       </c>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>203</v>
       </c>
@@ -47480,7 +47480,7 @@
         <v>30.190249999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>204</v>
       </c>
@@ -47627,7 +47627,7 @@
         <v>45.091749999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>207</v>
       </c>
@@ -47774,7 +47774,7 @@
         <v>28.1845</v>
       </c>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>204</v>
       </c>
@@ -47921,7 +47921,7 @@
         <v>18.137875000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>202</v>
       </c>
@@ -48068,7 +48068,7 @@
         <v>20.103874999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>204</v>
       </c>
@@ -48215,7 +48215,7 @@
         <v>38.1205</v>
       </c>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>203</v>
       </c>
@@ -48362,7 +48362,7 @@
         <v>37.935499999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>204</v>
       </c>
@@ -48509,7 +48509,7 @@
         <v>43.182749999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>204</v>
       </c>
@@ -48656,7 +48656,7 @@
         <v>42.116500000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>202</v>
       </c>
@@ -48803,7 +48803,7 @@
         <v>28.908625000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>203</v>
       </c>
@@ -48950,7 +48950,7 @@
         <v>37.399625</v>
       </c>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>203</v>
       </c>
@@ -49097,7 +49097,7 @@
         <v>39.173000000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>204</v>
       </c>
@@ -49244,7 +49244,7 @@
         <v>41.539874999999988</v>
       </c>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>204</v>
       </c>
@@ -49391,7 +49391,7 @@
         <v>27.722625000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>203</v>
       </c>
@@ -49538,7 +49538,7 @@
         <v>31.00675</v>
       </c>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>202</v>
       </c>
@@ -49685,7 +49685,7 @@
         <v>31.828250000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>203</v>
       </c>
@@ -49832,7 +49832,7 @@
         <v>27.74837500000001</v>
       </c>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>203</v>
       </c>
@@ -49979,7 +49979,7 @@
         <v>30.430875</v>
       </c>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>202</v>
       </c>
@@ -50126,7 +50126,7 @@
         <v>38.093124999999993</v>
       </c>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>202</v>
       </c>
@@ -50273,7 +50273,7 @@
         <v>34.686750000000004</v>
       </c>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>202</v>
       </c>
@@ -50420,7 +50420,7 @@
         <v>34.869500000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>204</v>
       </c>
@@ -50567,7 +50567,7 @@
         <v>35.373375000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>202</v>
       </c>
@@ -50714,7 +50714,7 @@
         <v>37.988</v>
       </c>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>204</v>
       </c>
@@ -50861,7 +50861,7 @@
         <v>39.666249999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>207</v>
       </c>
@@ -51008,7 +51008,7 @@
         <v>22.71275</v>
       </c>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>204</v>
       </c>
@@ -51155,7 +51155,7 @@
         <v>26.9465</v>
       </c>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>202</v>
       </c>
@@ -51302,7 +51302,7 @@
         <v>35.083125000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>202</v>
       </c>
@@ -51449,7 +51449,7 @@
         <v>34.219000000000008</v>
       </c>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>204</v>
       </c>
@@ -51596,7 +51596,7 @@
         <v>18.295625000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>203</v>
       </c>
@@ -51743,7 +51743,7 @@
         <v>32.836750000000002</v>
       </c>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>202</v>
       </c>
@@ -51890,7 +51890,7 @@
         <v>39.495874999999998</v>
       </c>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>203</v>
       </c>
@@ -52037,7 +52037,7 @@
         <v>38.164000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>203</v>
       </c>
@@ -52184,7 +52184,7 @@
         <v>34.172874999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>205</v>
       </c>
@@ -52331,7 +52331,7 @@
         <v>35.623624999999997</v>
       </c>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>202</v>
       </c>
@@ -52478,7 +52478,7 @@
         <v>37.939124999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>205</v>
       </c>
@@ -52625,7 +52625,7 @@
         <v>25.481625000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>202</v>
       </c>
@@ -52772,7 +52772,7 @@
         <v>36.185624999999987</v>
       </c>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>202</v>
       </c>
@@ -52874,7 +52874,7 @@
         <v>29.243499999999901</v>
       </c>
     </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>202</v>
       </c>
@@ -53021,7 +53021,7 @@
         <v>41.619624999999992</v>
       </c>
     </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>204</v>
       </c>
@@ -53168,7 +53168,7 @@
         <v>20.46725</v>
       </c>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>204</v>
       </c>
@@ -53315,7 +53315,7 @@
         <v>22.981111111111101</v>
       </c>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Z168">
         <v>17.607749999999999</v>
       </c>
@@ -53392,7 +53392,7 @@
         <v>24.835374999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Z169">
         <v>13.9085</v>
       </c>
@@ -53469,7 +53469,7 @@
         <v>30.791250000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Z170">
         <v>25.344833333333341</v>
       </c>
@@ -53546,7 +53546,7 @@
         <v>34.390875000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Z171">
         <v>24.066416666666669</v>
       </c>
@@ -53623,7 +53623,7 @@
         <v>35.558124999999997</v>
       </c>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Z172">
         <v>21.451750000000001</v>
       </c>
@@ -53700,7 +53700,7 @@
         <v>28.970999999999901</v>
       </c>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Z173">
         <v>21.486333333333331</v>
       </c>
@@ -53787,12 +53787,12 @@
   <dimension ref="A1:C167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
@@ -53803,7 +53803,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -53814,7 +53814,7 @@
         <v>0.62910506390949594</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -53825,7 +53825,7 @@
         <v>0.70350740240295628</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -53836,7 +53836,7 @@
         <v>0.70058658203096857</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -53847,7 +53847,7 @@
         <v>0.56035770336149415</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>205</v>
       </c>
@@ -53858,7 +53858,7 @@
         <v>0.51169524997036153</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>203</v>
       </c>
@@ -53869,7 +53869,7 @@
         <v>0.57630248305951204</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>206</v>
       </c>
@@ -53880,7 +53880,7 @@
         <v>0.74868351411523504</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>203</v>
       </c>
@@ -53891,7 +53891,7 @@
         <v>0.64827159816312963</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -53902,7 +53902,7 @@
         <v>0.54602123000543723</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>202</v>
       </c>
@@ -53913,7 +53913,7 @@
         <v>0.73460652846271224</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -53924,7 +53924,7 @@
         <v>0.8106740412561404</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -53935,7 +53935,7 @@
         <v>0.22330588302591525</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -53946,7 +53946,7 @@
         <v>0.50845099177285946</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>203</v>
       </c>
@@ -53957,7 +53957,7 @@
         <v>0.71874063506145691</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>204</v>
       </c>
@@ -53968,7 +53968,7 @@
         <v>0.887223194309392</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>205</v>
       </c>
@@ -53979,7 +53979,7 @@
         <v>0.74466220619130241</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -53990,7 +53990,7 @@
         <v>0.70431078672954117</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -54001,7 +54001,7 @@
         <v>0.74252353772992474</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -54012,7 +54012,7 @@
         <v>0.52989432264792469</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>203</v>
       </c>
@@ -54023,7 +54023,7 @@
         <v>0.61289853751749923</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>204</v>
       </c>
@@ -54034,7 +54034,7 @@
         <v>0.87249523041309895</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>204</v>
       </c>
@@ -54045,7 +54045,7 @@
         <v>0.258518042721259</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -54056,7 +54056,7 @@
         <v>0.8239498968954807</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>204</v>
       </c>
@@ -54067,7 +54067,7 @@
         <v>0.84378655316462858</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>207</v>
       </c>
@@ -54078,7 +54078,7 @@
         <v>0.75533772491365125</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>204</v>
       </c>
@@ -54089,7 +54089,7 @@
         <v>0.21250222641466529</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -54100,7 +54100,7 @@
         <v>-0.31039626801084508</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -54111,7 +54111,7 @@
         <v>0.78506183195541757</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -54122,7 +54122,7 @@
         <v>0.74640472964812621</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>202</v>
       </c>
@@ -54133,7 +54133,7 @@
         <v>0.77649818272654292</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>205</v>
       </c>
@@ -54144,7 +54144,7 @@
         <v>0.72916976316240789</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>204</v>
       </c>
@@ -54155,7 +54155,7 @@
         <v>0.78597226232514716</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -54166,7 +54166,7 @@
         <v>0.60603369244131655</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>207</v>
       </c>
@@ -54177,9 +54177,9 @@
         <v>0.79170142820345601</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B36" t="s">
         <v>175</v>
@@ -54188,7 +54188,7 @@
         <v>0.90616069527722187</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>203</v>
       </c>
@@ -54199,7 +54199,7 @@
         <v>0.47684469960194598</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>207</v>
       </c>
@@ -54210,7 +54210,7 @@
         <v>0.67163041807126</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>203</v>
       </c>
@@ -54221,7 +54221,7 @@
         <v>0.43850693206414487</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>203</v>
       </c>
@@ -54232,9 +54232,9 @@
         <v>0.41147380088665392</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s">
         <v>178</v>
@@ -54243,7 +54243,7 @@
         <v>0.83364660447987848</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>203</v>
       </c>
@@ -54254,7 +54254,7 @@
         <v>0.71916408331118564</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -54265,7 +54265,7 @@
         <v>0.84003199397697048</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>207</v>
       </c>
@@ -54276,7 +54276,7 @@
         <v>0.44905502528501673</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>207</v>
       </c>
@@ -54287,7 +54287,7 @@
         <v>0.83102070155192131</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>205</v>
       </c>
@@ -54298,7 +54298,7 @@
         <v>0.66025490757134808</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>204</v>
       </c>
@@ -54309,7 +54309,7 @@
         <v>0.72230602197722493</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>207</v>
       </c>
@@ -54320,7 +54320,7 @@
         <v>0.71484651297743829</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -54331,7 +54331,7 @@
         <v>0.26844866476376489</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>203</v>
       </c>
@@ -54342,7 +54342,7 @@
         <v>0.59628808581358583</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>203</v>
       </c>
@@ -54353,7 +54353,7 @@
         <v>0.68100779262482425</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>204</v>
       </c>
@@ -54364,7 +54364,7 @@
         <v>0.90593672031995753</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -54375,7 +54375,7 @@
         <v>0.46194967984149954</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -54386,7 +54386,7 @@
         <v>0.7051600454366781</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>204</v>
       </c>
@@ -54397,7 +54397,7 @@
         <v>0.72684692392273564</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -54408,7 +54408,7 @@
         <v>0.75395534845967294</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>203</v>
       </c>
@@ -54419,7 +54419,7 @@
         <v>0.68655063551609685</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>203</v>
       </c>
@@ -54430,7 +54430,7 @@
         <v>0.70545573614114543</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>204</v>
       </c>
@@ -54441,7 +54441,7 @@
         <v>0.80975521441937903</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>203</v>
       </c>
@@ -54452,7 +54452,7 @@
         <v>-0.32616734248610424</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>207</v>
       </c>
@@ -54463,7 +54463,7 @@
         <v>0.74385297881904588</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -54474,7 +54474,7 @@
         <v>0.83411814733131406</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>204</v>
       </c>
@@ -54485,7 +54485,7 @@
         <v>0.85087993663430805</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>207</v>
       </c>
@@ -54496,7 +54496,7 @@
         <v>0.7487359182437765</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>207</v>
       </c>
@@ -54507,7 +54507,7 @@
         <v>0.73986088313352094</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>207</v>
       </c>
@@ -54518,7 +54518,7 @@
         <v>0.72670296567925541</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>203</v>
       </c>
@@ -54529,7 +54529,7 @@
         <v>0.69362616695746682</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -54540,7 +54540,7 @@
         <v>0.78591041269182482</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -54551,7 +54551,7 @@
         <v>0.81323570523415789</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>202</v>
       </c>
@@ -54562,7 +54562,7 @@
         <v>0.78769190734046945</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>202</v>
       </c>
@@ -54573,7 +54573,7 @@
         <v>0.50158872438103286</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>202</v>
       </c>
@@ -54584,7 +54584,7 @@
         <v>0.7514225195295462</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -54595,7 +54595,7 @@
         <v>0.81242867214430114</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>202</v>
       </c>
@@ -54606,7 +54606,7 @@
         <v>0.80271164616116875</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -54617,7 +54617,7 @@
         <v>0.26689427717240988</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>207</v>
       </c>
@@ -54628,7 +54628,7 @@
         <v>0.14921597747104212</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -54639,7 +54639,7 @@
         <v>0.73040849913769323</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -54650,7 +54650,7 @@
         <v>0.72605920865241647</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>202</v>
       </c>
@@ -54661,7 +54661,7 @@
         <v>0.67357776950075465</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -54672,7 +54672,7 @@
         <v>0.81152717551941567</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -54683,7 +54683,7 @@
         <v>0.54636519889078283</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>202</v>
       </c>
@@ -54694,7 +54694,7 @@
         <v>0.84067835441655403</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -54705,7 +54705,7 @@
         <v>0.81592199534788268</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>203</v>
       </c>
@@ -54716,7 +54716,7 @@
         <v>0.56617872324690877</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>202</v>
       </c>
@@ -54727,7 +54727,7 @@
         <v>0.51461542461338761</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -54738,7 +54738,7 @@
         <v>0.79907741168309199</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>204</v>
       </c>
@@ -54749,7 +54749,7 @@
         <v>0.61883527280875861</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>204</v>
       </c>
@@ -54760,7 +54760,7 @@
         <v>-0.25239801547111351</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>203</v>
       </c>
@@ -54771,7 +54771,7 @@
         <v>0.68756167193535034</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>203</v>
       </c>
@@ -54782,7 +54782,7 @@
         <v>0.80342792413390551</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>204</v>
       </c>
@@ -54793,7 +54793,7 @@
         <v>0.74955074389986676</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>204</v>
       </c>
@@ -54804,7 +54804,7 @@
         <v>0.67331767580544288</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>202</v>
       </c>
@@ -54815,7 +54815,7 @@
         <v>0.78378243457632935</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -54826,7 +54826,7 @@
         <v>0.84251575051130512</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>203</v>
       </c>
@@ -54837,7 +54837,7 @@
         <v>0.91481156340320258</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -54848,7 +54848,7 @@
         <v>0.64432187455719236</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>204</v>
       </c>
@@ -54859,7 +54859,7 @@
         <v>0.87658689541361456</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>207</v>
       </c>
@@ -54870,7 +54870,7 @@
         <v>0.63418487825782044</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>203</v>
       </c>
@@ -54881,7 +54881,7 @@
         <v>0.72081833192752209</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>202</v>
       </c>
@@ -54892,7 +54892,7 @@
         <v>0.75138284960668034</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>203</v>
       </c>
@@ -54903,7 +54903,7 @@
         <v>0.94963803635598354</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -54914,7 +54914,7 @@
         <v>0.74833011192934296</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>204</v>
       </c>
@@ -54925,9 +54925,9 @@
         <v>0.94769823584881685</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B104" t="s">
         <v>185</v>
@@ -54936,7 +54936,7 @@
         <v>0.80090222646114506</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -54947,7 +54947,7 @@
         <v>0.72664156242732225</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>202</v>
       </c>
@@ -54958,7 +54958,7 @@
         <v>0.83459299582454405</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>203</v>
       </c>
@@ -54969,7 +54969,7 @@
         <v>0.71092512924496754</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -54980,7 +54980,7 @@
         <v>0.76965505183593586</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>207</v>
       </c>
@@ -54991,7 +54991,7 @@
         <v>0.77382397446955242</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -55002,7 +55002,7 @@
         <v>0.70386033553969474</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>204</v>
       </c>
@@ -55013,9 +55013,9 @@
         <v>0.51297588810664729</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B112" t="s">
         <v>187</v>
@@ -55024,9 +55024,9 @@
         <v>0.13000143385153501</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
         <v>188</v>
@@ -55035,7 +55035,7 @@
         <v>0.62292276715936368</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>203</v>
       </c>
@@ -55046,7 +55046,7 @@
         <v>0.53644981544045667</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>202</v>
       </c>
@@ -55057,7 +55057,7 @@
         <v>0.6427813777640824</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>202</v>
       </c>
@@ -55068,7 +55068,7 @@
         <v>0.84901841499706521</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>206</v>
       </c>
@@ -55079,7 +55079,7 @@
         <v>0.78719302154215565</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>207</v>
       </c>
@@ -55090,7 +55090,7 @@
         <v>0.78677750359216514</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>205</v>
       </c>
@@ -55101,7 +55101,7 @@
         <v>0.7695433936259688</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>205</v>
       </c>
@@ -55112,7 +55112,7 @@
         <v>0.68669676380370182</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>202</v>
       </c>
@@ -55123,7 +55123,7 @@
         <v>0.84108695628851704</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>203</v>
       </c>
@@ -55134,7 +55134,7 @@
         <v>0.67283521230995325</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>203</v>
       </c>
@@ -55145,7 +55145,7 @@
         <v>0.47591260564661902</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>203</v>
       </c>
@@ -55156,7 +55156,7 @@
         <v>-9.8715062697741895E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>202</v>
       </c>
@@ -55167,7 +55167,7 @@
         <v>0.69094125940281115</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>203</v>
       </c>
@@ -55178,7 +55178,7 @@
         <v>0.54410272903083545</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>203</v>
       </c>
@@ -55189,7 +55189,7 @@
         <v>0.55654953011854458</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>204</v>
       </c>
@@ -55200,7 +55200,7 @@
         <v>0.83745121165810532</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>207</v>
       </c>
@@ -55211,7 +55211,7 @@
         <v>0.57069431114518387</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>204</v>
       </c>
@@ -55222,7 +55222,7 @@
         <v>0.81335184016199458</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>202</v>
       </c>
@@ -55233,7 +55233,7 @@
         <v>0.39544138380177979</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>204</v>
       </c>
@@ -55244,7 +55244,7 @@
         <v>0.8507504387449627</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>203</v>
       </c>
@@ -55255,7 +55255,7 @@
         <v>0.57858630062429539</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>204</v>
       </c>
@@ -55266,7 +55266,7 @@
         <v>0.83871061717602247</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>204</v>
       </c>
@@ -55277,7 +55277,7 @@
         <v>0.63123523371430124</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>202</v>
       </c>
@@ -55288,7 +55288,7 @@
         <v>0.75071071316144333</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>203</v>
       </c>
@@ -55299,7 +55299,7 @@
         <v>0.71627784881433143</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>203</v>
       </c>
@@ -55310,7 +55310,7 @@
         <v>0.63513020553878008</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>204</v>
       </c>
@@ -55321,9 +55321,9 @@
         <v>0.60912123445715582</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B140" t="s">
         <v>193</v>
@@ -55332,7 +55332,7 @@
         <v>0.75702253070759884</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>203</v>
       </c>
@@ -55343,7 +55343,7 @@
         <v>0.31934141740537991</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>202</v>
       </c>
@@ -55354,7 +55354,7 @@
         <v>0.78853875813721697</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>203</v>
       </c>
@@ -55365,7 +55365,7 @@
         <v>0.63924725945952898</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>203</v>
       </c>
@@ -55376,7 +55376,7 @@
         <v>0.65508246226560785</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>202</v>
       </c>
@@ -55387,7 +55387,7 @@
         <v>-0.85920408592994968</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>202</v>
       </c>
@@ -55398,7 +55398,7 @@
         <v>0.70294096650779514</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>202</v>
       </c>
@@ -55409,7 +55409,7 @@
         <v>0.81751405121665144</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>204</v>
       </c>
@@ -55420,7 +55420,7 @@
         <v>0.80468206112886853</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>202</v>
       </c>
@@ -55431,7 +55431,7 @@
         <v>0.78407430136027423</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>204</v>
       </c>
@@ -55442,7 +55442,7 @@
         <v>0.8345808364690086</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>207</v>
       </c>
@@ -55453,7 +55453,7 @@
         <v>0.21309722245413906</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>204</v>
       </c>
@@ -55464,7 +55464,7 @@
         <v>0.62498330142832548</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>202</v>
       </c>
@@ -55475,7 +55475,7 @@
         <v>0.6824245875421634</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>202</v>
       </c>
@@ -55486,7 +55486,7 @@
         <v>0.74509662754935535</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>204</v>
       </c>
@@ -55497,7 +55497,7 @@
         <v>0.74023641566430542</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>203</v>
       </c>
@@ -55508,7 +55508,7 @@
         <v>0.1587603239017514</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>202</v>
       </c>
@@ -55519,7 +55519,7 @@
         <v>0.72012069281113811</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>203</v>
       </c>
@@ -55530,9 +55530,9 @@
         <v>0.76984546947276622</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B159" t="s">
         <v>166</v>
@@ -55541,7 +55541,7 @@
         <v>0.75789065379093135</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>205</v>
       </c>
@@ -55552,7 +55552,7 @@
         <v>0.72543095124977663</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>202</v>
       </c>
@@ -55563,7 +55563,7 @@
         <v>0.85577333403630562</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>205</v>
       </c>
@@ -55574,7 +55574,7 @@
         <v>3.9172856370580114E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>202</v>
       </c>
@@ -55585,7 +55585,7 @@
         <v>0.82832138971669966</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>202</v>
       </c>
@@ -55596,7 +55596,7 @@
         <v>0.87579915740326286</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>202</v>
       </c>
@@ -55607,7 +55607,7 @@
         <v>-0.57620884840482722</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>204</v>
       </c>
@@ -55618,7 +55618,7 @@
         <v>0.60029554952024877</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>204</v>
       </c>
@@ -55639,12 +55639,12 @@
   <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
@@ -55655,7 +55655,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -55666,7 +55666,7 @@
         <v>0.50640363679030709</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>203</v>
       </c>
@@ -55677,7 +55677,7 @@
         <v>0.67179486121970688</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -55688,7 +55688,7 @@
         <v>0.56725008247646391</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>204</v>
       </c>
@@ -55699,7 +55699,7 @@
         <v>-0.10367162597975405</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>207</v>
       </c>
@@ -55710,7 +55710,7 @@
         <v>0.25612620352211701</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>205</v>
       </c>
@@ -55721,7 +55721,7 @@
         <v>-0.11383081019529001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>203</v>
       </c>
@@ -55732,7 +55732,7 @@
         <v>0.58037896027700064</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -55743,7 +55743,7 @@
         <v>-6.559790440501545E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>203</v>
       </c>
@@ -55754,7 +55754,7 @@
         <v>0.39031421689401402</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -55765,7 +55765,7 @@
         <v>0.60473879913575757</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>207</v>
       </c>
@@ -55776,7 +55776,7 @@
         <v>0.14927435933358355</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -55787,7 +55787,7 @@
         <v>0.58526141208682492</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -55798,7 +55798,7 @@
         <v>0.64002711140366086</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>207</v>
       </c>
@@ -55809,7 +55809,7 @@
         <v>4.8028390056304264E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>203</v>
       </c>
@@ -55820,7 +55820,7 @@
         <v>0.61065330333888168</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>203</v>
       </c>
@@ -55831,7 +55831,7 @@
         <v>-1.2049482534855094E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -55842,7 +55842,7 @@
         <v>0.48501569272389422</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -55853,7 +55853,7 @@
         <v>0.5395901094420259</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>202</v>
       </c>
@@ -55864,7 +55864,7 @@
         <v>0.69768129156434266</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -55875,7 +55875,7 @@
         <v>-0.11941962348320175</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -55886,7 +55886,7 @@
         <v>0.67025315019513443</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>204</v>
       </c>
@@ -55897,7 +55897,7 @@
         <v>-0.68979263159026571</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>205</v>
       </c>
@@ -55908,7 +55908,7 @@
         <v>0.22594862835461732</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -55919,7 +55919,7 @@
         <v>0.68599231915049808</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>204</v>
       </c>
@@ -55930,7 +55930,7 @@
         <v>0.47062988195650307</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>204</v>
       </c>
@@ -55941,7 +55941,7 @@
         <v>-0.27235181937290298</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>204</v>
       </c>
@@ -55952,7 +55952,7 @@
         <v>0.24930465399988075</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>202</v>
       </c>
@@ -55963,7 +55963,7 @@
         <v>0.66667004676982866</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>204</v>
       </c>
@@ -55974,7 +55974,7 @@
         <v>0.46989861905860009</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>207</v>
       </c>
@@ -55985,7 +55985,7 @@
         <v>0.69704762777882745</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -55996,7 +55996,7 @@
         <v>0.26196943613359897</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>204</v>
       </c>
@@ -56007,7 +56007,7 @@
         <v>0.442823333319813</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>205</v>
       </c>
@@ -56018,7 +56018,7 @@
         <v>0.15861213579158215</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>202</v>
       </c>
@@ -56029,7 +56029,7 @@
         <v>0.55283985804937696</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>205</v>
       </c>
@@ -56040,7 +56040,7 @@
         <v>0.28257628471749774</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>204</v>
       </c>
@@ -56051,7 +56051,7 @@
         <v>0.23953298730457723</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -56062,7 +56062,7 @@
         <v>0.19526270516104918</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>204</v>
       </c>
@@ -56073,7 +56073,7 @@
         <v>0.12935468582475396</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>207</v>
       </c>
@@ -56084,7 +56084,7 @@
         <v>-0.18971944183333281</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>203</v>
       </c>
@@ -56095,7 +56095,7 @@
         <v>0.57709191390545533</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>203</v>
       </c>
@@ -56106,7 +56106,7 @@
         <v>0.67214827180624193</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>203</v>
       </c>
@@ -56117,7 +56117,7 @@
         <v>0.44477947200926327</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -56128,7 +56128,7 @@
         <v>5.7344791369034163E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>204</v>
       </c>
@@ -56139,7 +56139,7 @@
         <v>0.7732401348385467</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>207</v>
       </c>
@@ -56150,7 +56150,7 @@
         <v>0.34769068559360894</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>207</v>
       </c>
@@ -56161,7 +56161,7 @@
         <v>0.15718433665792816</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>205</v>
       </c>
@@ -56172,7 +56172,7 @@
         <v>4.1841457274458774E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>204</v>
       </c>
@@ -56183,7 +56183,7 @@
         <v>0.66154122157971196</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>207</v>
       </c>
@@ -56194,7 +56194,7 @@
         <v>0.38956579802899444</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -56205,7 +56205,7 @@
         <v>0.35674301489390037</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>204</v>
       </c>
@@ -56216,7 +56216,7 @@
         <v>0.76675239720426125</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -56227,7 +56227,7 @@
         <v>0.49040160534156374</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>204</v>
       </c>
@@ -56238,7 +56238,7 @@
         <v>0.65921145859987818</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>206</v>
       </c>
@@ -56249,7 +56249,7 @@
         <v>0.47031997906075795</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>203</v>
       </c>
@@ -56260,7 +56260,7 @@
         <v>0.43989561871442467</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>203</v>
       </c>
@@ -56271,7 +56271,7 @@
         <v>8.7625248854077006E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>204</v>
       </c>
@@ -56282,7 +56282,7 @@
         <v>0.29560683229540424</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>204</v>
       </c>
@@ -56293,7 +56293,7 @@
         <v>0.45525693041858595</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>203</v>
       </c>
@@ -56304,7 +56304,7 @@
         <v>0.61590294545121338</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>203</v>
       </c>
@@ -56315,7 +56315,7 @@
         <v>0.12772451560519055</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -56326,7 +56326,7 @@
         <v>0.48312945027474657</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -56337,7 +56337,7 @@
         <v>0.55714716898449435</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>207</v>
       </c>
@@ -56348,7 +56348,7 @@
         <v>0.41048525975234584</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>207</v>
       </c>
@@ -56359,7 +56359,7 @@
         <v>0.2495877520157429</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>204</v>
       </c>
@@ -56370,7 +56370,7 @@
         <v>0.56801519007711598</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>204</v>
       </c>
@@ -56381,7 +56381,7 @@
         <v>0.42081526702105482</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>205</v>
       </c>
@@ -56392,7 +56392,7 @@
         <v>0.37292750689194548</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>207</v>
       </c>
@@ -56403,7 +56403,7 @@
         <v>0.13118499077434786</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>207</v>
       </c>
@@ -56414,7 +56414,7 @@
         <v>0.40941569383171783</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>207</v>
       </c>
@@ -56425,7 +56425,7 @@
         <v>0.29138030547746052</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>203</v>
       </c>
@@ -56436,7 +56436,7 @@
         <v>0.56095173490088268</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -56447,7 +56447,7 @@
         <v>-0.26728398515529589</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>202</v>
       </c>
@@ -56458,7 +56458,7 @@
         <v>0.58353784266854247</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>202</v>
       </c>
@@ -56469,7 +56469,7 @@
         <v>0.33049948817349445</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>202</v>
       </c>
@@ -56480,7 +56480,7 @@
         <v>0.63094530348100331</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>203</v>
       </c>
@@ -56491,7 +56491,7 @@
         <v>-6.0005400537906831E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -56502,7 +56502,7 @@
         <v>0.60769699576573455</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -56513,7 +56513,7 @@
         <v>0.34882145818860022</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>207</v>
       </c>
@@ -56524,7 +56524,7 @@
         <v>0.31370669927037786</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>202</v>
       </c>
@@ -56535,7 +56535,7 @@
         <v>0.2963032399849258</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>202</v>
       </c>
@@ -56546,7 +56546,7 @@
         <v>0.6770408263116745</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>202</v>
       </c>
@@ -56557,7 +56557,7 @@
         <v>0.42172541391651697</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>204</v>
       </c>
@@ -56568,7 +56568,7 @@
         <v>0.57477910695728107</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>206</v>
       </c>
@@ -56579,7 +56579,7 @@
         <v>5.5943081447517425E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>206</v>
       </c>
@@ -56590,7 +56590,7 @@
         <v>0.51496737495658584</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>202</v>
       </c>
@@ -56601,7 +56601,7 @@
         <v>0.62817697764093761</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -56612,7 +56612,7 @@
         <v>0.3561311119675159</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>202</v>
       </c>
@@ -56623,7 +56623,7 @@
         <v>0.63394176005652225</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>203</v>
       </c>
@@ -56634,7 +56634,7 @@
         <v>0.43060281540728462</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>202</v>
       </c>
@@ -56645,7 +56645,7 @@
         <v>0.61648374320962651</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>204</v>
       </c>
@@ -56656,7 +56656,7 @@
         <v>-0.14316253975361126</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>204</v>
       </c>
@@ -56667,7 +56667,7 @@
         <v>0.51089610750693848</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -56678,7 +56678,7 @@
         <v>0.58898549673331713</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>203</v>
       </c>
@@ -56689,7 +56689,7 @@
         <v>0.39023183738489026</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>203</v>
       </c>
@@ -56700,7 +56700,7 @@
         <v>9.8884002226185305E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>203</v>
       </c>
@@ -56711,7 +56711,7 @@
         <v>0.70851305341646165</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>204</v>
       </c>
@@ -56722,7 +56722,7 @@
         <v>-0.13416504632019693</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -56733,7 +56733,7 @@
         <v>-0.1945241772870461</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>202</v>
       </c>
@@ -56744,7 +56744,7 @@
         <v>0.55024548416592711</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>202</v>
       </c>
@@ -56755,7 +56755,7 @@
         <v>0.98968749770560527</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -56766,7 +56766,7 @@
         <v>0.38751520044500287</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>203</v>
       </c>
@@ -56777,7 +56777,7 @@
         <v>0.43332650171169673</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -56788,7 +56788,7 @@
         <v>0.49173360337938177</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>204</v>
       </c>
@@ -56799,7 +56799,7 @@
         <v>0.5472439659574303</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -56810,7 +56810,7 @@
         <v>0.72389333903456177</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>203</v>
       </c>
@@ -56821,7 +56821,7 @@
         <v>0.61734317695656293</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>202</v>
       </c>
@@ -56832,7 +56832,7 @@
         <v>0.48084015591844165</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>204</v>
       </c>
@@ -56843,7 +56843,7 @@
         <v>0.65628367007664123</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -56854,7 +56854,7 @@
         <v>-0.49696446068034034</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>204</v>
       </c>
@@ -56865,7 +56865,7 @@
         <v>-0.37602031622484794</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>202</v>
       </c>
@@ -56876,7 +56876,7 @@
         <v>0.35618078532806469</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>203</v>
       </c>
@@ -56887,7 +56887,7 @@
         <v>-7.6242736466298949E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>206</v>
       </c>
@@ -56898,7 +56898,7 @@
         <v>0.33376440254212297</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>207</v>
       </c>
@@ -56909,7 +56909,7 @@
         <v>0.16171892028820334</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>204</v>
       </c>
@@ -56920,7 +56920,7 @@
         <v>0.63675651593944982</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>204</v>
       </c>
@@ -56931,7 +56931,7 @@
         <v>0.58745742690799174</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>203</v>
       </c>
@@ -56942,7 +56942,7 @@
         <v>0.24901192955537446</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>202</v>
       </c>
@@ -56953,7 +56953,7 @@
         <v>0.49648033403964886</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>202</v>
       </c>
@@ -56964,7 +56964,7 @@
         <v>0.34803915002896829</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>207</v>
       </c>
@@ -56975,7 +56975,7 @@
         <v>0.39374245277898828</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>206</v>
       </c>
@@ -56986,7 +56986,7 @@
         <v>0.26579336612251508</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>205</v>
       </c>
@@ -56997,7 +56997,7 @@
         <v>-0.40555454815680886</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>205</v>
       </c>
@@ -57008,7 +57008,7 @@
         <v>-2.1313460310076148E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>202</v>
       </c>
@@ -57019,7 +57019,7 @@
         <v>0.47710081949711147</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>203</v>
       </c>
@@ -57030,7 +57030,7 @@
         <v>0.40600055867511264</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>203</v>
       </c>
@@ -57041,7 +57041,7 @@
         <v>0.36582486088320665</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>202</v>
       </c>
@@ -57052,7 +57052,7 @@
         <v>0.63471991492680502</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>203</v>
       </c>
@@ -57063,7 +57063,7 @@
         <v>0.72316563849700155</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>203</v>
       </c>
@@ -57074,7 +57074,7 @@
         <v>0.63362575925391085</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>204</v>
       </c>
@@ -57085,7 +57085,7 @@
         <v>-4.6955679038297081E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>206</v>
       </c>
@@ -57096,7 +57096,7 @@
         <v>0.32156445974895609</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>204</v>
       </c>
@@ -57107,7 +57107,7 @@
         <v>0.46515528988472987</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>202</v>
       </c>
@@ -57118,7 +57118,7 @@
         <v>0.71323601991266006</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>204</v>
       </c>
@@ -57129,7 +57129,7 @@
         <v>0.48707457846634528</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>203</v>
       </c>
@@ -57140,7 +57140,7 @@
         <v>0.68034048818900505</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>204</v>
       </c>
@@ -57151,7 +57151,7 @@
         <v>0.5561178415841399</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>204</v>
       </c>
@@ -57162,7 +57162,7 @@
         <v>0.36891067378352038</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>202</v>
       </c>
@@ -57173,7 +57173,7 @@
         <v>0.46748391589976673</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>203</v>
       </c>
@@ -57184,7 +57184,7 @@
         <v>0.53604039606233822</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>203</v>
       </c>
@@ -57195,7 +57195,7 @@
         <v>0.54178545516017373</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>206</v>
       </c>
@@ -57206,7 +57206,7 @@
         <v>0.37591049381198705</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>204</v>
       </c>
@@ -57217,7 +57217,7 @@
         <v>-0.32353063031137219</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>203</v>
       </c>
@@ -57228,7 +57228,7 @@
         <v>0.23873683444749672</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>202</v>
       </c>
@@ -57239,7 +57239,7 @@
         <v>0.57693780335640843</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>202</v>
       </c>
@@ -57250,7 +57250,7 @@
         <v>0.19759271051216967</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>202</v>
       </c>
@@ -57261,7 +57261,7 @@
         <v>0.2464051226838487</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>202</v>
       </c>
@@ -57272,7 +57272,7 @@
         <v>0.34735496541870448</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>204</v>
       </c>
@@ -57283,7 +57283,7 @@
         <v>0.61546997377678403</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>205</v>
       </c>
@@ -57294,7 +57294,7 @@
         <v>0.48821911991127298</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>203</v>
       </c>
@@ -57305,7 +57305,7 @@
         <v>0.32645175149328814</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>203</v>
       </c>
@@ -57316,7 +57316,7 @@
         <v>0.19513993331036622</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>202</v>
       </c>
@@ -57327,7 +57327,7 @@
         <v>0.71586654006996386</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>202</v>
       </c>
@@ -57338,7 +57338,7 @@
         <v>0.20321243708320669</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>202</v>
       </c>
@@ -57349,7 +57349,7 @@
         <v>0.50651198235277539</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>204</v>
       </c>
@@ -57360,7 +57360,7 @@
         <v>0.11865107710931534</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>202</v>
       </c>
@@ -57371,7 +57371,7 @@
         <v>0.65443567052252605</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>204</v>
       </c>
@@ -57382,7 +57382,7 @@
         <v>0.47943181147919622</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>206</v>
       </c>
@@ -57393,7 +57393,7 @@
         <v>0.48396846330578619</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>207</v>
       </c>
@@ -57404,7 +57404,7 @@
         <v>0.50749733222899629</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>204</v>
       </c>
@@ -57415,7 +57415,7 @@
         <v>0.59623004602078022</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>202</v>
       </c>
@@ -57426,7 +57426,7 @@
         <v>0.64130029220617746</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>204</v>
       </c>
@@ -57437,7 +57437,7 @@
         <v>0.52088693633455496</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>203</v>
       </c>
@@ -57448,7 +57448,7 @@
         <v>0.6843369752887799</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>202</v>
       </c>
@@ -57459,7 +57459,7 @@
         <v>0.63286712597205663</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>203</v>
       </c>
@@ -57470,9 +57470,9 @@
         <v>-7.3320045505950639E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B167" t="s">
         <v>166</v>
@@ -57481,7 +57481,7 @@
         <v>0.53562799830693486</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>205</v>
       </c>
@@ -57492,7 +57492,7 @@
         <v>-0.25943744302026628</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>202</v>
       </c>
@@ -57503,7 +57503,7 @@
         <v>0.55814787975998614</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>205</v>
       </c>
@@ -57514,7 +57514,7 @@
         <v>0.29509459058933274</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>202</v>
       </c>
@@ -57525,7 +57525,7 @@
         <v>0.5777097320735034</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>204</v>
       </c>
@@ -57536,7 +57536,7 @@
         <v>-0.41074973064142556</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>204</v>
       </c>
